--- a/Task1/Team A Pizza Data.xlsx
+++ b/Task1/Team A Pizza Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinqi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinqi/Desktop/DA1 Team A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD24DD38-FAFA-2141-A015-3353A4AFAC52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2513704E-4721-C94F-8CB0-253C2E5D2094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pizza Places" sheetId="5" r:id="rId1"/>
@@ -337,12 +337,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -607,7 +609,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1343,7 +1345,7 @@
         <v>1690</v>
       </c>
       <c r="G23" s="3">
-        <v>9999</v>
+        <v>490</v>
       </c>
       <c r="H23" s="3">
         <v>130</v>

--- a/Task1/Team A Pizza Data.xlsx
+++ b/Task1/Team A Pizza Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinqi/Desktop/DA1 Team A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2513704E-4721-C94F-8CB0-253C2E5D2094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4AF70E-3B3D-1C44-A3BE-DBD6DC4B1557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,21 +50,9 @@
     <t>rating_count</t>
   </si>
   <si>
-    <t>Inner/ Outer</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
-    <t>distance2ceu (In Meters)</t>
-  </si>
-  <si>
-    <t>marpizza_price 30-32cm (in HUF)</t>
-  </si>
-  <si>
-    <t>beverage_price 0.5L (In HUF)</t>
-  </si>
-  <si>
     <t>Pizza Eataliano</t>
   </si>
   <si>
@@ -321,6 +309,18 @@
   </si>
   <si>
     <t>Budapest, Fehérvári út 50-52, 1117</t>
+  </si>
+  <si>
+    <t>Inner_Outer</t>
+  </si>
+  <si>
+    <t>marpizza_price</t>
+  </si>
+  <si>
+    <t>beverage_price</t>
+  </si>
+  <si>
+    <t>distance2ceu</t>
   </si>
 </sst>
 </file>
@@ -609,7 +609,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -634,19 +634,19 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>5</v>
@@ -660,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3">
         <v>5</v>
@@ -669,9 +669,11 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2300</v>
+      </c>
       <c r="G2" s="3">
         <v>350</v>
       </c>
@@ -690,7 +692,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3">
         <v>5</v>
@@ -699,7 +701,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3">
         <v>2690</v>
@@ -722,7 +724,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3">
         <v>5</v>
@@ -731,7 +733,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3">
         <v>1980</v>
@@ -754,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3">
         <v>6</v>
@@ -763,7 +765,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3">
         <v>2095</v>
@@ -786,7 +788,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3">
         <v>7</v>
@@ -795,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F6" s="3">
         <v>1890</v>
@@ -818,7 +820,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -827,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F7" s="3">
         <v>2300</v>
@@ -850,7 +852,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -859,7 +861,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F8" s="3">
         <v>2100</v>
@@ -882,7 +884,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
@@ -891,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F9" s="3">
         <v>1850</v>
@@ -914,7 +916,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
@@ -923,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F10" s="3">
         <v>1639</v>
@@ -946,7 +948,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3">
         <v>22</v>
@@ -955,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F11" s="3">
         <v>1590</v>
@@ -978,7 +980,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3">
         <v>22</v>
@@ -987,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F12" s="3">
         <v>1950</v>
@@ -1010,7 +1012,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3">
         <v>22</v>
@@ -1019,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F13" s="3">
         <v>1390</v>
@@ -1042,7 +1044,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3">
         <v>22</v>
@@ -1051,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F14" s="3">
         <v>1240</v>
@@ -1074,7 +1076,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C15" s="3">
         <v>18</v>
@@ -1083,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F15" s="3">
         <v>1490</v>
@@ -1106,7 +1108,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3">
         <v>18</v>
@@ -1115,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F16" s="3">
         <v>1590</v>
@@ -1138,7 +1140,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C17" s="3">
         <v>20</v>
@@ -1147,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F17" s="3">
         <v>2090</v>
@@ -1170,7 +1172,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3">
         <v>13</v>
@@ -1179,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F18" s="3">
         <v>1690</v>
@@ -1202,7 +1204,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C19" s="3">
         <v>8</v>
@@ -1211,7 +1213,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F19" s="3">
         <v>1590</v>
@@ -1234,7 +1236,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C20" s="3">
         <v>5</v>
@@ -1243,7 +1245,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F20" s="3">
         <v>1490</v>
@@ -1266,7 +1268,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C21" s="3">
         <v>9</v>
@@ -1275,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F21" s="3">
         <v>1790</v>
@@ -1298,7 +1300,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C22" s="3">
         <v>18</v>
@@ -1307,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F22" s="3">
         <v>1990</v>
@@ -1330,7 +1332,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C23" s="3">
         <v>5</v>
@@ -1339,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F23" s="3">
         <v>1690</v>
@@ -1362,7 +1364,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
@@ -1371,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F24" s="3">
         <v>1690</v>
@@ -1394,7 +1396,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C25" s="3">
         <v>16</v>
@@ -1403,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F25" s="3">
         <v>1590</v>
@@ -1426,7 +1428,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C26" s="3">
         <v>3</v>
@@ -1435,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F26" s="3">
         <v>1690</v>
@@ -1458,7 +1460,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C27" s="3">
         <v>8</v>
@@ -1467,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F27" s="3">
         <v>2100</v>
@@ -1490,7 +1492,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C28" s="3">
         <v>13</v>
@@ -1499,7 +1501,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F28" s="3">
         <v>1899</v>
@@ -1522,7 +1524,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C29" s="3">
         <v>11</v>
@@ -1531,7 +1533,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F29" s="3">
         <v>1520</v>
@@ -1554,7 +1556,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C30" s="3">
         <v>16</v>
@@ -1563,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F30" s="3">
         <v>1640</v>
@@ -1586,7 +1588,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C31" s="3">
         <v>10</v>
@@ -1595,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F31" s="3">
         <v>1890</v>
@@ -1618,7 +1620,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C32" s="3">
         <v>14</v>
@@ -1627,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F32" s="3">
         <v>1850</v>
@@ -1650,7 +1652,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C33" s="3">
         <v>5</v>
@@ -1659,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F33" s="3">
         <v>1590</v>
@@ -1682,7 +1684,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C34" s="3">
         <v>6</v>
@@ -1691,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F34" s="3">
         <v>1790</v>
@@ -1714,7 +1716,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C35" s="3">
         <v>7</v>
@@ -1723,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F35" s="3">
         <v>1890</v>
@@ -1746,7 +1748,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C36" s="3">
         <v>2</v>
@@ -1755,7 +1757,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F36" s="3">
         <v>1790</v>
@@ -1778,7 +1780,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C37" s="3">
         <v>5</v>
@@ -1787,7 +1789,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F37" s="3">
         <v>1290</v>
@@ -1810,7 +1812,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C38" s="3">
         <v>18</v>
@@ -1819,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F38" s="3">
         <v>1990</v>
@@ -1842,7 +1844,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C39" s="3">
         <v>20</v>
@@ -1851,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F39" s="3">
         <v>1690</v>
@@ -1874,7 +1876,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C40" s="3">
         <v>20</v>
@@ -1883,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F40" s="3">
         <v>1450</v>
@@ -1906,7 +1908,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C41" s="3">
         <v>11</v>
@@ -1915,7 +1917,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F41" s="3">
         <v>1750</v>
@@ -1938,7 +1940,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C42" s="3">
         <v>5</v>
@@ -1947,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F42" s="3">
         <v>2240</v>
@@ -1970,7 +1972,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C43" s="3">
         <v>15</v>
@@ -1979,7 +1981,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F43" s="3">
         <v>2000</v>
@@ -2002,7 +2004,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C44" s="3">
         <v>11</v>
@@ -2011,7 +2013,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F44" s="3">
         <v>1490</v>
@@ -2034,7 +2036,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C45" s="4">
         <v>10</v>
@@ -2043,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F45" s="4">
         <v>1999</v>
